--- a/biology/Zoologie/Cercopithecus_erythrogaster/Cercopithecus_erythrogaster.xlsx
+++ b/biology/Zoologie/Cercopithecus_erythrogaster/Cercopithecus_erythrogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hocheur à ventre roux
 Le Hocheur à ventre roux (Cercopithecus erythrogaster) est un primate appartenant à la famille des Cercopithecidae. On le croyait disparu jusqu'à ce qu'on en ait retrouvé une petite colonie en 1988.
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce primate est également appelé hocheur à ventre rouge[1] ou singe à ventre rouge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce primate est également appelé hocheur à ventre rouge ou singe à ventre rouge.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon la troisième édition de Mammal Species of the World de 2005 :
 Cercopithecus erythrogaster erythrogaster
@@ -575,9 +591,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Togo, au Bénin et au Nigéria. Elle vit dans la forêt tropicale humide de basse altitude, primaire et secondaire[2]. Certains individus ont pu se réfugier dans des bois sacrés classés au titre de la Convention de RAMSAR[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Togo, au Bénin et au Nigéria. Elle vit dans la forêt tropicale humide de basse altitude, primaire et secondaire. Certains individus ont pu se réfugier dans des bois sacrés classés au titre de la Convention de RAMSAR.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce singe pèse de 4 kg pour le mâle à 3 kg pour la femelle. Il a la tête rousse et les pattes avant blanches.
 Alimentation
@@ -641,10 +661,12 @@
           <t>Relation avec l’Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Iconographie
-En 2003, le Bénin consacre à ce singe une série de timbres. [1]
+En 2003, le Bénin consacre à ce singe une série de timbres. 
 </t>
         </is>
       </c>
